--- a/sofaplayer/Ligue_1/Stade Brestois_stats.xlsx
+++ b/sofaplayer/Ligue_1/Stade Brestois_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>343971</v>
       </c>
       <c r="E2" t="n">
-        <v>6.85</v>
+        <v>6.8380952380952</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>1744</v>
+        <v>1834</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>6.1995</v>
       </c>
       <c r="L2" t="n">
-        <v>581.33333333333</v>
+        <v>611.33333333333</v>
       </c>
       <c r="M2" t="n">
         <v>34</v>
@@ -1098,43 +1098,43 @@
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.57931824</v>
+        <v>1.60685324</v>
       </c>
       <c r="AB2" t="n">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="AC2" t="n">
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AF2" t="n">
-        <v>69.831223628692</v>
+        <v>68.463073852295</v>
       </c>
       <c r="AG2" t="n">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AI2" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AJ2" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="n">
         <v>27</v>
       </c>
       <c r="AL2" t="n">
-        <v>72.972972972973</v>
+        <v>71.052631578947</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="AR2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AS2" t="n">
         <v>11</v>
@@ -1164,7 +1164,7 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -1179,37 +1179,37 @@
         <v>69.230769230769</v>
       </c>
       <c r="BA2" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="BB2" t="n">
-        <v>53.311258278146</v>
+        <v>53.650793650794</v>
       </c>
       <c r="BC2" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BD2" t="n">
-        <v>44.444444444444</v>
+        <v>45</v>
       </c>
       <c r="BE2" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="BF2" t="n">
-        <v>58.918918918919</v>
+        <v>58.974358974359</v>
       </c>
       <c r="BG2" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="BH2" t="n">
         <v>40</v>
       </c>
       <c r="BI2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BJ2" t="n">
         <v>8</v>
       </c>
       <c r="BK2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL2" t="n">
         <v>1</v>
@@ -1221,22 +1221,22 @@
         <v>5</v>
       </c>
       <c r="BO2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>137</v>
+        <v>143.6</v>
       </c>
       <c r="BR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BT2" t="n">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="BU2" t="n">
         <v>1</v>
@@ -1260,10 +1260,10 @@
         <v>7</v>
       </c>
       <c r="CB2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CC2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CD2" t="n">
         <v>23</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CK2" t="n">
         <v>4</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CS2" t="n">
         <v>13</v>
@@ -1317,10 +1317,10 @@
         <v>7</v>
       </c>
       <c r="CU2" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="CV2" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="DA2" t="n">
         <v>9</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="DG2" t="n">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ2" t="n">
         <v>2143845</v>
@@ -2103,40 +2103,40 @@
         <v>1401005</v>
       </c>
       <c r="E5" t="n">
-        <v>6.6733333333333</v>
+        <v>6.76875</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2257</v>
+        <v>3.3704</v>
       </c>
       <c r="L5" t="n">
-        <v>214.66666666667</v>
+        <v>178.5</v>
       </c>
       <c r="M5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>16.666666666667</v>
+        <v>19.047619047619</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -2169,61 +2169,61 @@
         <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.61661295</v>
+        <v>0.84353595</v>
       </c>
       <c r="AB5" t="n">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AF5" t="n">
-        <v>80.91603053435099</v>
+        <v>79.166666666667</v>
       </c>
       <c r="AG5" t="n">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="AH5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
         <v>4</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AO5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -2244,28 +2244,28 @@
         <v>9</v>
       </c>
       <c r="AZ5" t="n">
-        <v>45</v>
+        <v>40.909090909091</v>
       </c>
       <c r="BA5" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BB5" t="n">
-        <v>35.483870967742</v>
+        <v>36</v>
       </c>
       <c r="BC5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
-        <v>38.028169014085</v>
+        <v>38.157894736842</v>
       </c>
       <c r="BE5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF5" t="n">
-        <v>27.272727272727</v>
+        <v>29.166666666667</v>
       </c>
       <c r="BG5" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="BH5" t="n">
         <v>18</v>
@@ -2295,22 +2295,22 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>100.1</v>
+        <v>108.3</v>
       </c>
       <c r="BR5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2322,16 +2322,16 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CA5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB5" t="n">
         <v>6</v>
       </c>
       <c r="CC5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CD5" t="n">
         <v>2</v>
@@ -2376,34 +2376,34 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CS5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CT5" t="n">
+        <v>7</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>64</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA5" t="n">
         <v>5</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>60</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>16</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>8</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>4</v>
       </c>
       <c r="DB5" t="n">
         <v>50</v>
@@ -2418,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="DG5" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ5" t="n">
         <v>2266767</v>
@@ -2815,16 +2815,16 @@
         <v>904994</v>
       </c>
       <c r="E7" t="n">
-        <v>6.6733333333333</v>
+        <v>6.625</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>408</v>
+        <v>485</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2833,13 +2833,13 @@
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.5092</v>
+        <v>1.6693</v>
       </c>
       <c r="L7" t="n">
-        <v>204</v>
+        <v>242.5</v>
       </c>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
         <v>4</v>
@@ -2848,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>18.181818181818</v>
+        <v>15.384615384615</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.24012243</v>
+        <v>0.27007963</v>
       </c>
       <c r="AB7" t="n">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="AC7" t="n">
         <v>1</v>
@@ -2893,28 +2893,28 @@
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AF7" t="n">
-        <v>71.428571428571</v>
+        <v>69</v>
       </c>
       <c r="AG7" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AI7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -2932,16 +2932,16 @@
         <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AS7" t="n">
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2959,32 +2959,32 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>50</v>
+        <v>43.859649122807</v>
       </c>
       <c r="BC7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD7" t="n">
-        <v>53.125</v>
+        <v>48.717948717949</v>
       </c>
       <c r="BE7" t="n">
         <v>6</v>
       </c>
       <c r="BF7" t="n">
-        <v>42.857142857143</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG7" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="BH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI7" t="n">
         <v>6</v>
       </c>
-      <c r="BI7" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ7" t="n">
         <v>1</v>
       </c>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>100.1</v>
+        <v>106</v>
       </c>
       <c r="BR7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS7" t="n">
         <v>2</v>
       </c>
       <c r="BT7" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3034,37 +3034,37 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
         <v>6</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>5</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -3091,28 +3091,28 @@
         <v>3</v>
       </c>
       <c r="CS7" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>32</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
         <v>4</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>8</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>2</v>
       </c>
       <c r="DA7" t="n">
         <v>7</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="DG7" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>1410231</v>
       </c>
       <c r="E8" t="n">
-        <v>6.4294117647059</v>
+        <v>6.4</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
         <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -3192,7 +3192,7 @@
         <v>2.4645</v>
       </c>
       <c r="L8" t="n">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="M8" t="n">
         <v>17</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.66895439</v>
+        <v>0.66952524</v>
       </c>
       <c r="AB8" t="n">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
@@ -3249,19 +3249,19 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF8" t="n">
-        <v>77.40112994350299</v>
+        <v>77.222222222222</v>
       </c>
       <c r="AG8" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AH8" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI8" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
         <v>51</v>
@@ -3288,7 +3288,7 @@
         <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
         <v>15</v>
@@ -3312,19 +3312,19 @@
         <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>37.254901960784</v>
+        <v>35.849056603774</v>
       </c>
       <c r="BA8" t="n">
         <v>60</v>
       </c>
       <c r="BB8" t="n">
-        <v>34.682080924855</v>
+        <v>33.149171270718</v>
       </c>
       <c r="BC8" t="n">
         <v>50</v>
       </c>
       <c r="BD8" t="n">
-        <v>35.460992907801</v>
+        <v>33.557046979866</v>
       </c>
       <c r="BE8" t="n">
         <v>10</v>
@@ -3333,10 +3333,10 @@
         <v>31.25</v>
       </c>
       <c r="BG8" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="BH8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BI8" t="n">
         <v>15</v>
@@ -3357,22 +3357,22 @@
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>109.3</v>
+        <v>115.2</v>
       </c>
       <c r="BR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS8" t="n">
         <v>1</v>
       </c>
       <c r="BT8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="CB8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CC8" t="n">
         <v>4</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK8" t="n">
         <v>1</v>
@@ -3447,13 +3447,13 @@
         <v>7</v>
       </c>
       <c r="CS8" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CT8" t="n">
         <v>4</v>
       </c>
       <c r="CU8" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="CV8" t="n">
         <v>22</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="DG8" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>825681</v>
       </c>
       <c r="E10" t="n">
-        <v>6.7684210526316</v>
+        <v>6.765</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>1551</v>
+        <v>1641</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3901,22 +3901,22 @@
         <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>6.9618</v>
+        <v>7.1823</v>
       </c>
       <c r="L10" t="n">
-        <v>221.57142857143</v>
+        <v>234.42857142857</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" t="n">
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>33.333333333333</v>
+        <v>31.818181818182</v>
       </c>
       <c r="Q10" t="n">
         <v>6</v>
@@ -3949,64 +3949,64 @@
         <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.93443261</v>
+        <v>3.99549291</v>
       </c>
       <c r="AB10" t="n">
-        <v>1052</v>
+        <v>1097</v>
       </c>
       <c r="AC10" t="n">
         <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE10" t="n">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.083612040134</v>
+        <v>75.11961722488</v>
       </c>
       <c r="AG10" t="n">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="AH10" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AI10" t="n">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AJ10" t="n">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>40.540540540541</v>
+        <v>41.025641025641</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>25.185185185185</v>
+        <v>24.285714285714</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AS10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU10" t="n">
         <v>5</v>
@@ -4021,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>34.48275862069</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>106</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>46.288209606987</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>87</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>45.549738219895</v>
+      </c>
+      <c r="BE10" t="n">
         <v>19</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>33.928571428571</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>45.909090909091</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>84</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>45.405405405405</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>17</v>
-      </c>
       <c r="BF10" t="n">
-        <v>48.571428571429</v>
+        <v>50</v>
       </c>
       <c r="BG10" t="n">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="BH10" t="n">
         <v>22</v>
@@ -4069,28 +4069,28 @@
         <v>3</v>
       </c>
       <c r="BO10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>128.6</v>
+        <v>135.3</v>
       </c>
       <c r="BR10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS10" t="n">
         <v>9</v>
       </c>
       <c r="BT10" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="BU10" t="n">
         <v>1</v>
       </c>
       <c r="BV10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BW10" t="n">
         <v>8</v>
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="BZ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CA10" t="n">
         <v>10</v>
@@ -4111,64 +4111,64 @@
         <v>23</v>
       </c>
       <c r="CC10" t="n">
+        <v>62</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>27</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>24</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>43</v>
+      </c>
+      <c r="CS10" t="n">
         <v>58</v>
       </c>
-      <c r="CD10" t="n">
-        <v>24</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>42</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>56</v>
-      </c>
       <c r="CT10" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="CU10" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="CV10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CW10" t="n">
         <v>1</v>
@@ -4180,13 +4180,13 @@
         <v>1</v>
       </c>
       <c r="CZ10" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="DA10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="DB10" t="n">
-        <v>66.666666666667</v>
+        <v>65.90909090909101</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="DG10" t="n">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>976396</v>
       </c>
       <c r="E11" t="n">
-        <v>6.935</v>
+        <v>6.9714285714286</v>
       </c>
       <c r="F11" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" t="n">
         <v>20</v>
       </c>
-      <c r="G11" t="n">
-        <v>19</v>
-      </c>
       <c r="H11" t="n">
-        <v>1709</v>
+        <v>1799</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -4260,7 +4260,7 @@
         <v>1.1924</v>
       </c>
       <c r="L11" t="n">
-        <v>854.5</v>
+        <v>899.5</v>
       </c>
       <c r="M11" t="n">
         <v>21</v>
@@ -4305,40 +4305,40 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.70137313</v>
+        <v>0.71726383</v>
       </c>
       <c r="AB11" t="n">
-        <v>982</v>
+        <v>1029</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="AF11" t="n">
-        <v>79.347826086957</v>
+        <v>79.210526315789</v>
       </c>
       <c r="AG11" t="n">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="AH11" t="n">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="AI11" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AJ11" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AK11" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>48.421052631579</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -4347,22 +4347,22 @@
         <v>22.222222222222</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AS11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT11" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AU11" t="n">
         <v>5</v>
@@ -4383,16 +4383,16 @@
         <v>57.142857142857</v>
       </c>
       <c r="BA11" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="BB11" t="n">
-        <v>55.737704918033</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="BD11" t="n">
-        <v>55.434782608696</v>
+        <v>57.281553398058</v>
       </c>
       <c r="BE11" t="n">
         <v>17</v>
@@ -4401,10 +4401,10 @@
         <v>56.666666666667</v>
       </c>
       <c r="BG11" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="BH11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI11" t="n">
         <v>10</v>
@@ -4425,22 +4425,22 @@
         <v>5</v>
       </c>
       <c r="BO11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>138.7</v>
+        <v>146.4</v>
       </c>
       <c r="BR11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS11" t="n">
         <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4467,10 +4467,10 @@
         <v>4</v>
       </c>
       <c r="CC11" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="CD11" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CK11" t="n">
         <v>4</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CS11" t="n">
         <v>7</v>
@@ -4521,7 +4521,7 @@
         <v>27</v>
       </c>
       <c r="CU11" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="CV11" t="n">
         <v>13</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="DA11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="DB11" t="n">
-        <v>59.459459459459</v>
+        <v>53.333333333333</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,16 +4554,16 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="DG11" t="n">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DJ11" t="n">
         <v>2169543</v>
@@ -4595,16 +4595,16 @@
         <v>787889</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6384615384615</v>
+        <v>6.6357142857143</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.32995545</v>
+        <v>0.34375925</v>
       </c>
       <c r="AB12" t="n">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
@@ -4673,22 +4673,22 @@
         <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="n">
-        <v>79.85074626865701</v>
+        <v>80.434782608696</v>
       </c>
       <c r="AG12" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH12" t="n">
         <v>67</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
         <v>8</v>
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
       </c>
       <c r="AR12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4739,16 +4739,16 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BB12" t="n">
-        <v>52.459016393443</v>
+        <v>50.769230769231</v>
       </c>
       <c r="BC12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD12" t="n">
-        <v>55</v>
+        <v>52.272727272727</v>
       </c>
       <c r="BE12" t="n">
         <v>10</v>
@@ -4757,10 +4757,10 @@
         <v>47.619047619048</v>
       </c>
       <c r="BG12" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI12" t="n">
         <v>2</v>
@@ -4787,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>86.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="BR12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="CB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC12" t="n">
         <v>6</v>
@@ -4877,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="CU12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CV12" t="n">
         <v>11</v>
@@ -4895,10 +4895,10 @@
         <v>16</v>
       </c>
       <c r="DA12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB12" t="n">
-        <v>55.555555555556</v>
+        <v>57.894736842105</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>76</v>
       </c>
       <c r="DG12" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>861324</v>
       </c>
       <c r="E13" t="n">
-        <v>6.755</v>
+        <v>6.7571428571429</v>
       </c>
       <c r="F13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" t="n">
         <v>20</v>
       </c>
-      <c r="G13" t="n">
-        <v>19</v>
-      </c>
       <c r="H13" t="n">
-        <v>1645</v>
+        <v>1735</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4969,13 +4969,13 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4334</v>
+        <v>0.4733</v>
       </c>
       <c r="L13" t="n">
-        <v>1645</v>
+        <v>1735</v>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>6.6666666666667</v>
+        <v>5.8823529411765</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.88068715</v>
+        <v>0.8885942</v>
       </c>
       <c r="AB13" t="n">
-        <v>962</v>
+        <v>998</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
@@ -5029,28 +5029,28 @@
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="AF13" t="n">
-        <v>85.02747252747299</v>
+        <v>84.913217623498</v>
       </c>
       <c r="AG13" t="n">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="AH13" t="n">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AI13" t="n">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AJ13" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>49.253731343284</v>
+        <v>47.887323943662</v>
       </c>
       <c r="AM13" t="n">
         <v>1</v>
@@ -5059,25 +5059,25 @@
         <v>12.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AP13" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AU13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
@@ -5095,25 +5095,25 @@
         <v>90</v>
       </c>
       <c r="BA13" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="BB13" t="n">
-        <v>53.284671532847</v>
+        <v>53.146853146853</v>
       </c>
       <c r="BC13" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BD13" t="n">
-        <v>53.27868852459</v>
+        <v>53.174603174603</v>
       </c>
       <c r="BE13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF13" t="n">
-        <v>53.333333333333</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BG13" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="BH13" t="n">
         <v>27</v>
@@ -5137,22 +5137,22 @@
         <v>5</v>
       </c>
       <c r="BO13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>135.1</v>
+        <v>141.9</v>
       </c>
       <c r="BR13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5173,13 +5173,13 @@
         <v>2</v>
       </c>
       <c r="CA13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CB13" t="n">
         <v>11</v>
       </c>
       <c r="CC13" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CD13" t="n">
         <v>28</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CK13" t="n">
         <v>4</v>
@@ -5233,10 +5233,10 @@
         <v>8</v>
       </c>
       <c r="CU13" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="CV13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="DA13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="DB13" t="n">
-        <v>61.538461538462</v>
+        <v>63.414634146341</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="DG13" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>1135887</v>
       </c>
       <c r="E15" t="n">
-        <v>6.5066666666667</v>
+        <v>6.50625</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>915</v>
+        <v>1005</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5681,112 +5681,112 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6859</v>
+        <v>0.8124</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.27739473</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>628</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
         <v>3</v>
       </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.26074453</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>568</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>2</v>
-      </c>
       <c r="AE15" t="n">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="AF15" t="n">
-        <v>79.005524861878</v>
+        <v>78.55297157622699</v>
       </c>
       <c r="AG15" t="n">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="AH15" t="n">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AI15" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>39.393939393939</v>
+        <v>38.888888888889</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>21.052631578947</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR15" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AS15" t="n">
         <v>8</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AU15" t="n">
         <v>1</v>
@@ -5804,31 +5804,31 @@
         <v>2</v>
       </c>
       <c r="AZ15" t="n">
-        <v>50</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BB15" t="n">
-        <v>54.054054054054</v>
+        <v>52.5</v>
       </c>
       <c r="BC15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BD15" t="n">
-        <v>53.125</v>
+        <v>52.173913043478</v>
       </c>
       <c r="BE15" t="n">
         <v>6</v>
       </c>
       <c r="BF15" t="n">
-        <v>60</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BG15" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="BH15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI15" t="n">
         <v>11</v>
@@ -5849,124 +5849,124 @@
         <v>3</v>
       </c>
       <c r="BO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>97.59999999999999</v>
+        <v>104.1</v>
       </c>
       <c r="BR15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>34</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS15" t="n">
         <v>6</v>
       </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>8</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>31</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>4</v>
-      </c>
       <c r="CT15" t="n">
+        <v>20</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>38</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>5</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>36</v>
+      </c>
+      <c r="DA15" t="n">
         <v>19</v>
       </c>
-      <c r="CU15" t="n">
-        <v>34</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>33</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>18</v>
-      </c>
       <c r="DB15" t="n">
-        <v>85.71428571428601</v>
+        <v>82.60869565217401</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="DG15" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6731,16 +6731,16 @@
         <v>141080</v>
       </c>
       <c r="E18" t="n">
-        <v>6.805</v>
+        <v>6.7809523809524</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" t="n">
-        <v>1779</v>
+        <v>1869</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -6749,16 +6749,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2157</v>
+        <v>0.221</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -6797,10 +6797,10 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.86612941</v>
+        <v>2.95582051</v>
       </c>
       <c r="AB18" t="n">
-        <v>1242</v>
+        <v>1290</v>
       </c>
       <c r="AC18" t="n">
         <v>5</v>
@@ -6809,52 +6809,52 @@
         <v>17</v>
       </c>
       <c r="AE18" t="n">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="AF18" t="n">
-        <v>77.295285359801</v>
+        <v>77.19087635053999</v>
       </c>
       <c r="AG18" t="n">
-        <v>806</v>
+        <v>833</v>
       </c>
       <c r="AH18" t="n">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="AI18" t="n">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AJ18" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK18" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AL18" t="n">
-        <v>53.409090909091</v>
+        <v>53.038674033149</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>35.211267605634</v>
+        <v>34.722222222222</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ18" t="n">
         <v>2</v>
       </c>
       <c r="AR18" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT18" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AU18" t="n">
         <v>3</v>
@@ -6875,28 +6875,28 @@
         <v>43.75</v>
       </c>
       <c r="BA18" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB18" t="n">
-        <v>51.694915254237</v>
+        <v>50.406504065041</v>
       </c>
       <c r="BC18" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BD18" t="n">
-        <v>54.255319148936</v>
+        <v>53.061224489796</v>
       </c>
       <c r="BE18" t="n">
         <v>10</v>
       </c>
       <c r="BF18" t="n">
-        <v>41.666666666667</v>
+        <v>40</v>
       </c>
       <c r="BG18" t="n">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="BH18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI18" t="n">
         <v>19</v>
@@ -6917,22 +6917,22 @@
         <v>5</v>
       </c>
       <c r="BO18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>136.1</v>
+        <v>142.4</v>
       </c>
       <c r="BR18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS18" t="n">
         <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6953,16 +6953,16 @@
         <v>2</v>
       </c>
       <c r="CA18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC18" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CD18" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CK18" t="n">
         <v>4</v>
@@ -7010,13 +7010,13 @@
         <v>16</v>
       </c>
       <c r="CT18" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CU18" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="CV18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="DA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DB18" t="n">
-        <v>61.538461538462</v>
+        <v>62.962962962963</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="DG18" t="n">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7087,16 +7087,16 @@
         <v>1400993</v>
       </c>
       <c r="E19" t="n">
-        <v>6.94</v>
+        <v>6.9636363636364</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>754</v>
+        <v>844</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.15961006</v>
+        <v>0.16965426</v>
       </c>
       <c r="AB19" t="n">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7165,52 +7165,52 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="AF19" t="n">
-        <v>85.932721712538</v>
+        <v>85.434173669468</v>
       </c>
       <c r="AG19" t="n">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="AH19" t="n">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="AI19" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>63.636363636364</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
         <v>30</v>
       </c>
-      <c r="AL19" t="n">
-        <v>61.224489795918</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>28</v>
-      </c>
       <c r="AS19" t="n">
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
@@ -7228,28 +7228,28 @@
         <v>2</v>
       </c>
       <c r="AZ19" t="n">
-        <v>100</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA19" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BB19" t="n">
-        <v>63.265306122449</v>
+        <v>63.461538461538</v>
       </c>
       <c r="BC19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD19" t="n">
-        <v>78.947368421053</v>
+        <v>76.19047619047601</v>
       </c>
       <c r="BE19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BF19" t="n">
-        <v>53.333333333333</v>
+        <v>54.838709677419</v>
       </c>
       <c r="BG19" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="BH19" t="n">
         <v>2</v>
@@ -7273,22 +7273,22 @@
         <v>3</v>
       </c>
       <c r="BO19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>69.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="BR19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7315,10 +7315,10 @@
         <v>0</v>
       </c>
       <c r="CC19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CD19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK19" t="n">
         <v>0</v>
@@ -7363,13 +7363,13 @@
         <v>1</v>
       </c>
       <c r="CS19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CT19" t="n">
         <v>0</v>
       </c>
       <c r="CU19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV19" t="n">
         <v>14</v>
@@ -7384,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="DA19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB19" t="n">
-        <v>77.777777777778</v>
+        <v>80</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7402,16 +7402,16 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="DG19" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="DJ19" t="n">
         <v>2169552</v>
@@ -7443,16 +7443,16 @@
         <v>328035</v>
       </c>
       <c r="E20" t="n">
-        <v>6.8842105263158</v>
+        <v>6.905</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>1647</v>
+        <v>1737</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -7509,10 +7509,10 @@
         <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.56639704</v>
+        <v>0.56722736</v>
       </c>
       <c r="AB20" t="n">
-        <v>1120</v>
+        <v>1163</v>
       </c>
       <c r="AC20" t="n">
         <v>2</v>
@@ -7521,28 +7521,28 @@
         <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="AF20" t="n">
-        <v>84.174311926605</v>
+        <v>83.888888888889</v>
       </c>
       <c r="AG20" t="n">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="AH20" t="n">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="AI20" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AJ20" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AL20" t="n">
-        <v>41.496598639456</v>
+        <v>41.176470588235</v>
       </c>
       <c r="AM20" t="n">
         <v>1</v>
@@ -7554,19 +7554,19 @@
         <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>2</v>
       </c>
       <c r="AR20" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AS20" t="n">
         <v>9</v>
       </c>
       <c r="AT20" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -7581,31 +7581,31 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA20" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="BB20" t="n">
-        <v>60.13986013986</v>
+        <v>60.666666666667</v>
       </c>
       <c r="BC20" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BD20" t="n">
-        <v>55.932203389831</v>
+        <v>58.064516129032</v>
       </c>
       <c r="BE20" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BF20" t="n">
-        <v>63.095238095238</v>
+        <v>62.5</v>
       </c>
       <c r="BG20" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="BH20" t="n">
         <v>19</v>
@@ -7629,22 +7629,22 @@
         <v>6</v>
       </c>
       <c r="BO20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>130.8</v>
+        <v>138.1</v>
       </c>
       <c r="BR20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS20" t="n">
         <v>2</v>
       </c>
       <c r="BT20" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7671,10 +7671,10 @@
         <v>1</v>
       </c>
       <c r="CC20" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="CD20" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CK20" t="n">
         <v>4</v>
@@ -7719,16 +7719,16 @@
         <v>7</v>
       </c>
       <c r="CS20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT20" t="n">
         <v>4</v>
       </c>
       <c r="CU20" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CV20" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7740,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="DA20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB20" t="n">
-        <v>56.521739130435</v>
+        <v>56</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,16 +7758,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="DG20" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="DH20" t="n">
         <v>10</v>
       </c>
       <c r="DI20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="DJ20" t="n">
         <v>2143817</v>
@@ -8509,16 +8509,16 @@
         <v>891508</v>
       </c>
       <c r="E23" t="n">
-        <v>7.225</v>
+        <v>7.2076923076923</v>
       </c>
       <c r="F23" t="n">
+        <v>13</v>
+      </c>
+      <c r="G23" t="n">
         <v>12</v>
       </c>
-      <c r="G23" t="n">
-        <v>11</v>
-      </c>
       <c r="H23" t="n">
-        <v>1021</v>
+        <v>1111</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0320067</v>
+        <v>0.03429052</v>
       </c>
       <c r="AB23" t="n">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8585,28 +8585,28 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="n">
-        <v>55.742296918768</v>
+        <v>55.46875</v>
       </c>
       <c r="AG23" t="n">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="AH23" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AI23" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AL23" t="n">
-        <v>35</v>
+        <v>35.496183206107</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8624,13 +8624,13 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -8669,7 +8669,7 @@
         <v>100</v>
       </c>
       <c r="BG23" t="n">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BN23" t="n">
         <v>3</v>
       </c>
       <c r="BO23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>86.7</v>
+        <v>93.7</v>
       </c>
       <c r="BR23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8750,13 +8750,13 @@
         <v>1</v>
       </c>
       <c r="CH23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CI23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CJ23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK23" t="n">
         <v>3</v>
@@ -8765,13 +8765,13 @@
         <v>5</v>
       </c>
       <c r="CM23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CN23" t="n">
         <v>3</v>
       </c>
       <c r="CO23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="DA23" t="n">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>0</v>
       </c>
       <c r="DE23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DF23" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="DG23" t="n">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="DH23" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="DI23" t="n">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>0.7489</v>
+        <v>0.738</v>
       </c>
     </row>
   </sheetData>
